--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H2">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>3326.467187532068</v>
+        <v>5152.741086434074</v>
       </c>
       <c r="R2">
-        <v>29938.20468778861</v>
+        <v>46374.66977790666</v>
       </c>
       <c r="S2">
-        <v>0.04383573606092393</v>
+        <v>0.04182600682526928</v>
       </c>
       <c r="T2">
-        <v>0.04383573606092393</v>
+        <v>0.04182600682526928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H3">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>10957.50063102165</v>
+        <v>27662.82592352513</v>
       </c>
       <c r="R3">
-        <v>98617.50567919482</v>
+        <v>248965.4333117261</v>
       </c>
       <c r="S3">
-        <v>0.1443964658209159</v>
+        <v>0.2245456401699996</v>
       </c>
       <c r="T3">
-        <v>0.1443964658209159</v>
+        <v>0.2245456401699996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H4">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>5508.19155570277</v>
+        <v>14675.89852767137</v>
       </c>
       <c r="R4">
-        <v>49573.72400132493</v>
+        <v>132083.0867490424</v>
       </c>
       <c r="S4">
-        <v>0.07258620560389006</v>
+        <v>0.1191277073093038</v>
       </c>
       <c r="T4">
-        <v>0.07258620560389006</v>
+        <v>0.1191277073093038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H5">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>13076.67908581401</v>
+        <v>29942.86993490471</v>
       </c>
       <c r="R5">
-        <v>117690.1117723261</v>
+        <v>269485.8294141424</v>
       </c>
       <c r="S5">
-        <v>0.1723227137509893</v>
+        <v>0.2430532916863838</v>
       </c>
       <c r="T5">
-        <v>0.1723227137509893</v>
+        <v>0.2430532916863838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J6">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>2487.440640840143</v>
+        <v>1526.23975962484</v>
       </c>
       <c r="R6">
-        <v>22386.96576756128</v>
+        <v>13736.15783662355</v>
       </c>
       <c r="S6">
-        <v>0.03277915736183189</v>
+        <v>0.01238884576815475</v>
       </c>
       <c r="T6">
-        <v>0.03277915736183188</v>
+        <v>0.01238884576815475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J7">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>8193.717495183319</v>
@@ -883,10 +883,10 @@
         <v>73743.45745664986</v>
       </c>
       <c r="S7">
-        <v>0.1079757043216493</v>
+        <v>0.06651032491815666</v>
       </c>
       <c r="T7">
-        <v>0.1079757043216492</v>
+        <v>0.06651032491815666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J8">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>4118.874096982348</v>
+        <v>4346.99501982017</v>
       </c>
       <c r="R8">
-        <v>37069.86687284114</v>
+        <v>39122.95517838153</v>
       </c>
       <c r="S8">
-        <v>0.05427796746657495</v>
+        <v>0.03528557719445511</v>
       </c>
       <c r="T8">
-        <v>0.05427796746657495</v>
+        <v>0.03528557719445512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J9">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>9778.380838143927</v>
+        <v>8869.065579918984</v>
       </c>
       <c r="R9">
-        <v>88005.42754329534</v>
+        <v>79821.59021927086</v>
       </c>
       <c r="S9">
-        <v>0.1288581841813046</v>
+        <v>0.07199228357428909</v>
       </c>
       <c r="T9">
-        <v>0.1288581841813045</v>
+        <v>0.07199228357428909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H10">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>1858.884038898474</v>
+        <v>1513.757952024011</v>
       </c>
       <c r="R10">
-        <v>16729.95635008627</v>
+        <v>13623.82156821609</v>
       </c>
       <c r="S10">
-        <v>0.02449612321517368</v>
+        <v>0.01228752801103351</v>
       </c>
       <c r="T10">
-        <v>0.02449612321517368</v>
+        <v>0.01228752801103351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H11">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>6123.229805353293</v>
+        <v>8126.708098615401</v>
       </c>
       <c r="R11">
-        <v>55109.06824817963</v>
+        <v>73140.3728875386</v>
       </c>
       <c r="S11">
-        <v>0.08069109672685205</v>
+        <v>0.0659663939440998</v>
       </c>
       <c r="T11">
-        <v>0.08069109672685204</v>
+        <v>0.0659663939440998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H12">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>3078.067147172943</v>
+        <v>4311.444671235035</v>
       </c>
       <c r="R12">
-        <v>27702.60432455648</v>
+        <v>38803.00204111531</v>
       </c>
       <c r="S12">
-        <v>0.04056235382299964</v>
+        <v>0.03499700668458081</v>
       </c>
       <c r="T12">
-        <v>0.04056235382299964</v>
+        <v>0.03499700668458081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H13">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>7307.461238615576</v>
+        <v>8796.533089876337</v>
       </c>
       <c r="R13">
-        <v>65767.15114754018</v>
+        <v>79168.79780888701</v>
       </c>
       <c r="S13">
-        <v>0.09629673887420441</v>
+        <v>0.07140352035628758</v>
       </c>
       <c r="T13">
-        <v>0.0962967388742044</v>
+        <v>0.07140352035628758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H14">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>7.077404975335555</v>
+        <v>5.048800616026335</v>
       </c>
       <c r="R14">
-        <v>63.69664477802</v>
+        <v>45.43920554423701</v>
       </c>
       <c r="S14">
-        <v>9.326508845717825E-05</v>
+        <v>4.098229767090454E-05</v>
       </c>
       <c r="T14">
-        <v>9.326508845717826E-05</v>
+        <v>4.098229767090454E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H15">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>23.31322244028222</v>
+        <v>27.10481474247267</v>
       </c>
       <c r="R15">
-        <v>209.81900196254</v>
+        <v>243.943332682254</v>
       </c>
       <c r="S15">
-        <v>0.0003072185017943961</v>
+        <v>0.0002200161326562757</v>
       </c>
       <c r="T15">
-        <v>0.0003072185017943961</v>
+        <v>0.0002200161326562757</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H16">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>11.71925052125778</v>
+        <v>14.37985807637867</v>
       </c>
       <c r="R16">
-        <v>105.47325469132</v>
+        <v>129.418722687408</v>
       </c>
       <c r="S16">
-        <v>0.0001544347031611141</v>
+        <v>0.0001167246775958715</v>
       </c>
       <c r="T16">
-        <v>0.0001544347031611141</v>
+        <v>0.0001167246775958715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H17">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>27.82199504918889</v>
+        <v>29.338865981633</v>
       </c>
       <c r="R17">
-        <v>250.3979554427</v>
+        <v>264.049793834697</v>
       </c>
       <c r="S17">
-        <v>0.0003666344992777174</v>
+        <v>0.000238150450063205</v>
       </c>
       <c r="T17">
-        <v>0.0003666344992777174</v>
+        <v>0.000238150450063205</v>
       </c>
     </row>
   </sheetData>
